--- a/data/Challenges_DS29.xlsx
+++ b/data/Challenges_DS29.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="61">
   <si>
     <t>challenge_id</t>
   </si>
@@ -178,10 +178,57 @@
     <t>upload_post</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve">*случайное значение из БД тем постов*
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b val="0"/>
+        <color theme="1"/>
+      </rPr>
+      <t>Моя первая победа!</t>
+    </r>
+  </si>
+  <si>
+    <t>["https://www.instagram.com/p/CU7sPCsoUeo/?utm_source=ig_web_copy_link","https://www.instagram.com/p/B6GeI4zo49X/?utm_source=ig_web_copy_link","https://www.instagram.com/p/CU1voTxN8QV/?utm_source=ig_web_copy_link"]</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve">*случайное значение из БД тем постов*
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b val="0"/>
+        <color theme="1"/>
+      </rPr>
+      <t>Книга, которая изменила твое мышление!</t>
+    </r>
+  </si>
+  <si>
+    <t>["https://www.instagram.com/p/CU7svgpISez/?utm_source=ig_web_copy_link","https://www.instagram.com/p/CVD2JpQNms6/?utm_source=ig_web_copy_link","https://www.instagram.com/p/CVDQIPYD37o/?utm_source=ig_web_copy_link"]</t>
+  </si>
+  <si>
     <t>achievement_name</t>
   </si>
   <si>
     <t>type</t>
+  </si>
+  <si>
+    <t>Поздравляем! Ты выполнил первый челлендж!</t>
   </si>
   <si>
     <t>talant_name</t>
@@ -240,7 +287,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -254,6 +301,9 @@
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -812,6 +862,260 @@
         <v>47</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2">
+        <v>11.0</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2">
+        <v>12.0</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2">
+        <v>13.0</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2">
+        <v>14.0</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2">
+        <v>15.0</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2">
+        <v>16.0</v>
+      </c>
+      <c r="B17" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2">
+        <v>17.0</v>
+      </c>
+      <c r="B18" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2">
+        <v>18.0</v>
+      </c>
+      <c r="B19" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -835,13 +1139,13 @@
         <v>4</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>12</v>
@@ -850,6 +1154,12 @@
     <row r="2">
       <c r="A2" s="1">
         <v>1.0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="1">
+        <v>9.0</v>
       </c>
     </row>
   </sheetData>
@@ -872,63 +1182,63 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1">
         <v>1.0</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>51</v>
+      <c r="B2" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2">
         <v>2.0</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>52</v>
+      <c r="B3" s="3" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1">
         <v>3.0</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>53</v>
+      <c r="B4" s="3" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1">
         <v>4.0</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>54</v>
+      <c r="B5" s="3" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1">
         <v>5.0</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>55</v>
+      <c r="B6" s="3" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="9">
-      <c r="G9" s="5"/>
+      <c r="G9" s="6"/>
     </row>
     <row r="10">
-      <c r="G10" s="5"/>
+      <c r="G10" s="6"/>
     </row>
     <row r="11">
-      <c r="G11" s="5"/>
+      <c r="G11" s="6"/>
     </row>
     <row r="12">
-      <c r="G12" s="5"/>
+      <c r="G12" s="6"/>
     </row>
     <row r="13">
-      <c r="G13" s="5"/>
+      <c r="G13" s="6"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
